--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -5444,7 +5444,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Casa H</t>
+          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cristóbal Echeverría Schmidt</t>
+          <t>Francisco Javier Espinoza Rojas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/10/2021</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
+          <t>Casa H</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Productora de Aridos SpA</t>
+          <t>Cristóbal Echeverría Schmidt</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/06/2021</t>
+          <t>19/10/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>Sociedad Productora de Aridos SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>29/06/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rotonda Villarica</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria Altas Cumbres S.A.</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>48544</v>
+        <v>11000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>04/02/2021</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
+          <t>Rotonda Villarica</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Inmobiliaria Altas Cumbres S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>104810</v>
+        <v>48544</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>04/02/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vivienda y Local Comercial</t>
+          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pedro Diego Melinao Canales</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>104810</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/12/2019</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jardín Floresta IV y V</t>
+          <t>Vivienda y Local Comercial</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PL Constructora e Inmobiliaria Ltda.</t>
+          <t>Pedro Diego Melinao Canales</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>22700</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16/12/2019</t>
+          <t>24/12/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelacion Maria Luisa</t>
+          <t>Jardín Floresta IV y V</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
+          <t>PL Constructora e Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>500</v>
+        <v>22700</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/10/2019</t>
+          <t>16/12/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación María Luisa</t>
+          <t>Mejoramiento Parcelacion Maria Luisa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Odette Alejandra Matamala Paredes</t>
+          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>08/10/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación Mía Luisa</t>
+          <t>Mejoramiento Parcelación María Luisa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09/07/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nueva Puntilla de Villarrica</t>
+          <t>Mejoramiento Parcelación Mía Luisa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Odette Alejandra Matamala Paredes</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12499</v>
+        <v>500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>09/07/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Alfredo Angel Cordero Tabach</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
+          <t>Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Alfredo Angel Cordero Tabach</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>300</v>
+        <v>12499</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16/05/2019</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
+          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ecasa Villarrica SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>16/05/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
+          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANIA S.A..</t>
+          <t>Inmobiliaria Ecasa Villarrica SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8700</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16/11/2018</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>16/11/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
+          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28725</v>
+        <v>8700</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31/08/2017</t>
+          <t>22/10/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
+          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>28725</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/08/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>28/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/11/2012</t>
+          <t>28/11/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
+          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5700</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>26/11/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta piloto compostaje de aserrín Villarrica</t>
+          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>comercial e industrial wm uno ltda</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>5700</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Planta piloto compostaje de aserrín Villarrica</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>comercial e industrial wm uno ltda</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,40 +2392,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANÍA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4427</v>
+        <v>100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
+          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>AGUAS ARAUCANÍA S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,30 +2488,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>319</v>
+        <v>4427</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>512</v>
+        <v>319</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
+          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21/02/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
+          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>56000</v>
+        <v>23</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>03/02/2011</t>
+          <t>21/02/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
+          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>GERMAN RIBBA ALVAREZ</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>40</v>
+        <v>56000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02/09/2010</t>
+          <t>03/02/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Villarrica</t>
+          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>GERMAN RIBBA ALVAREZ</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>30/08/2010</t>
+          <t>02/09/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Plan Regulador Comunal de Villarrica</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Quilentue Limitada</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>13/08/2010</t>
+          <t>30/08/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Piscicultura Newenco</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Quilentue Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>07/07/2010</t>
+          <t>13/08/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
+          <t>Piscicultura Newenco</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18/05/2010</t>
+          <t>07/07/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Alberto Adolfo Peters Hitschfeld</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>18/05/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Alberto Adolfo Peters Hitschfeld</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>María Josefina Iribarren Marton</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>María Josefina Iribarren Marton</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>08/08/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Huincacara (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2500</v>
+        <v>234</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
+          <t>Regularización Piscicultura Huincacara (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>7017</v>
+        <v>2500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>7017</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5700</v>
+        <v>10</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>26/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>5700</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>26/07/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4686</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Modificación PRC Villarrica (e-seia)</t>
+          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,11 +4091,11 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/05/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRC Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>22/05/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,21 +4187,21 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1870</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
+          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4060</v>
+        <v>1870</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>30/06/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,12 +4408,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3390</v>
+        <v>4060</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/05/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3870</v>
+        <v>3390</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>16/05/2006</t>
+          <t>18/05/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3399</v>
+        <v>3870</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>16/05/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,40 +4552,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>500</v>
+        <v>3399</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Industrial (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento Industrial (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,20 +4850,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Proyecto Parque Villarrica (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>6000</v>
+        <v>170</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
+          <t>Proyecto Parque Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Antonio Donato Roa Astete</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>356</v>
+        <v>6000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>17/03/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Antonio Donato Roa Astete</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>17/03/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Piscicultura Loncotraro (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>GERMAN RIBBA ALVAREZ</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>15/10/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
+          <t>Piscicultura Loncotraro (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
+          <t>GERMAN RIBBA ALVAREZ</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>05/08/2004</t>
+          <t>15/10/2004</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
+          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3360</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>05/08/2004</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Terminal de Buses Urbanos Línea 3</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa de Taxibuses RJR Ltda.</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>130</v>
+        <v>3360</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Colegio Alemán de Villarrica</t>
+          <t>Terminal de Buses Urbanos Línea 3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
+          <t>Empresa de Taxibuses RJR Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/10/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
+          <t>Colegio Alemán de Villarrica</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Hotelera Aguas Verdes S.A.</t>
+          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09/09/2002</t>
+          <t>07/10/2002</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
+          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Piscicultura Pino Guacho Estero Vásquez</t>
+          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Bernhad Jungeburth Orth</t>
+          <t>Hotelera Aguas Verdes S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>09/09/2002</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Piscicultura Sector Chesque Alto</t>
+          <t>Piscicultura Pino Guacho Estero Vásquez</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sofonías Carlos Arias Ferreira</t>
+          <t>Bernhad Jungeburth Orth</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Muelle Paseo del Lago</t>
+          <t>Piscicultura Sector Chesque Alto</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Manuel Augusto Gaete Winkelman</t>
+          <t>Sofonías Carlos Arias Ferreira</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13/12/2001</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
+          <t>Muelle Paseo del Lago</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Manuel Augusto Gaete Winkelman</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>30/10/2001</t>
+          <t>13/12/2001</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Piscicultura Los Chilcos</t>
+          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>23/10/2001</t>
+          <t>30/10/2001</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Modificación de Plan Regulador Comunal Villarrica</t>
+          <t>Piscicultura Los Chilcos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Erwin Rafael Gudenschwager Jiménez</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10/10/2001</t>
+          <t>23/10/2001</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
+          <t>Modificación de Plan Regulador Comunal Villarrica</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Erwin Rafael Gudenschwager Jiménez</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>17/04/2001</t>
+          <t>10/10/2001</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Restaurant a Discoteca</t>
+          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Raul José San,Martín San,Martín</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>17/04/2001</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Quilentue IX Región</t>
+          <t>Modificación Proyecto Restaurant a Discoteca</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>GENTEC S.A.</t>
+          <t>Raul José San,Martín San,Martín</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
+          <t>Instalación Piscicultura Quilentue IX Región</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>GENTEC S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>03/01/2001</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Molco</t>
+          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>16000</v>
+        <v>230</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>11/12/2000</t>
+          <t>03/01/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Villarrica</t>
+          <t>Instalación Piscicultura Molco</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>11/12/2000</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
+          <t>Modificación Plan Regulador de Villarrica</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>14/09/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
+          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Guillermo Patricio Leddy Fuentes</t>
+          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>750</v>
+        <v>60</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>17/02/2000</t>
+          <t>14/09/2000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
+          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,21 +6059,21 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>17/02/2000</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
+          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Guillermo Patricio Leddy Fuentes</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
+          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Urbanización y Construcción Hijuela Pucará</t>
+          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jaime Fernando Cordero Cuevas</t>
+          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6207,17 +6207,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
+          <t>Urbanización y Construcción Hijuela Pucará</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Jaime Fernando Cordero Cuevas</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>15/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
+          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Atuan Burgos</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>15/02/1999</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF Villarrica</t>
+          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Corporación Obra Kolping Chile</t>
+          <t>Eduardo Segundo Atuan Burgos</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,12 +6376,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Villarrica</t>
+          <t>Estación de Servicios YPF Villarrica</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Villarica Ltda.</t>
+          <t>Corporación Obra Kolping Chile</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06/04/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,12 +6424,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Hostería y Centro de Capacitación Afunalhue</t>
+          <t>Relleno Sanitario Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Fundación San Cristóbal</t>
+          <t>Constructora Villarica Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>20/01/1998</t>
+          <t>06/04/1998</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
+          <t>Hostería y Centro de Capacitación Afunalhue</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
+          <t>Fundación San Cristóbal</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>20/01/1998</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
+          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Comité Habitacional Calafquén de Lican Ray</t>
+          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+          <t>Comité Habitacional Calafquén de Lican Ray</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,43 +6616,91 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>300</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>Hostería y centro de capacitación Afunalhue</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Novena</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>Fundación San Cristóbal</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="F132" t="n">
         <v>0</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>16/10/1997</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747876&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>Villarrica</t>
         </is>

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
+          <t>Proyecto DOMO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>31/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Casa H</t>
+          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cristóbal Echeverría Schmidt</t>
+          <t>Francisco Javier Espinoza Rojas</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/10/2021</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
+          <t>Casa H</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Productora de Aridos SpA</t>
+          <t>Cristóbal Echeverría Schmidt</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29/06/2021</t>
+          <t>19/10/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>Sociedad Productora de Aridos SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>29/06/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rotonda Villarica</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inmobiliaria Altas Cumbres S.A.</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>48544</v>
+        <v>11000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>04/02/2021</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
+          <t>Rotonda Villarica</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Inmobiliaria Altas Cumbres S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>104810</v>
+        <v>48544</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>04/02/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vivienda y Local Comercial</t>
+          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pedro Diego Melinao Canales</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>104810</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/12/2019</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jardín Floresta IV y V</t>
+          <t>Vivienda y Local Comercial</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PL Constructora e Inmobiliaria Ltda.</t>
+          <t>Pedro Diego Melinao Canales</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>22700</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16/12/2019</t>
+          <t>24/12/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelacion Maria Luisa</t>
+          <t>Jardín Floresta IV y V</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
+          <t>PL Constructora e Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>500</v>
+        <v>22700</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/10/2019</t>
+          <t>16/12/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación María Luisa</t>
+          <t>Mejoramiento Parcelacion Maria Luisa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Odette Alejandra Matamala Paredes</t>
+          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>08/10/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación Mía Luisa</t>
+          <t>Mejoramiento Parcelación María Luisa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09/07/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nueva Puntilla de Villarrica</t>
+          <t>Mejoramiento Parcelación Mía Luisa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Odette Alejandra Matamala Paredes</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12499</v>
+        <v>500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>09/07/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Alfredo Angel Cordero Tabach</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
+          <t>Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Alfredo Angel Cordero Tabach</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>12499</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16/05/2019</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
+          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ecasa Villarrica SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>16/05/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
+          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANIA S.A..</t>
+          <t>Inmobiliaria Ecasa Villarrica SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8700</v>
+        <v>50000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16/11/2018</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>16/11/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
+          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>28725</v>
+        <v>8700</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31/08/2017</t>
+          <t>22/10/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
+          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>28725</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/08/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>28/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/11/2012</t>
+          <t>28/11/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
+          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5700</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>26/11/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta piloto compostaje de aserrín Villarrica</t>
+          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>comercial e industrial wm uno ltda</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>5700</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Planta piloto compostaje de aserrín Villarrica</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>comercial e industrial wm uno ltda</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,40 +2440,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANÍA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4427</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
+          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>AGUAS ARAUCANÍA S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,30 +2536,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>319</v>
+        <v>4427</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>512</v>
+        <v>319</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
+          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21/02/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
+          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>56000</v>
+        <v>23</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>03/02/2011</t>
+          <t>21/02/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
+          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GERMAN RIBBA ALVAREZ</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>40</v>
+        <v>56000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>02/09/2010</t>
+          <t>03/02/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Villarrica</t>
+          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>GERMAN RIBBA ALVAREZ</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30/08/2010</t>
+          <t>02/09/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Plan Regulador Comunal de Villarrica</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Quilentue Limitada</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13/08/2010</t>
+          <t>30/08/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Piscicultura Newenco</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Quilentue Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07/07/2010</t>
+          <t>13/08/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
+          <t>Piscicultura Newenco</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18/05/2010</t>
+          <t>07/07/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Alberto Adolfo Peters Hitschfeld</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>18/05/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Alberto Adolfo Peters Hitschfeld</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>María Josefina Iribarren Marton</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>María Josefina Iribarren Marton</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>08/08/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Huincacara (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2500</v>
+        <v>234</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
+          <t>Regularización Piscicultura Huincacara (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>7017</v>
+        <v>2500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>7017</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5700</v>
+        <v>10</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>26/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>300</v>
+        <v>5700</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>26/07/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4686</v>
+        <v>300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Modificación PRC Villarrica (e-seia)</t>
+          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,11 +4139,11 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/05/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRC Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>22/05/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,21 +4235,21 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1870</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
+          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4060</v>
+        <v>1870</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>30/06/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3390</v>
+        <v>4060</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/05/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3870</v>
+        <v>3390</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>16/05/2006</t>
+          <t>18/05/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3399</v>
+        <v>3870</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>16/05/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,40 +4600,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>500</v>
+        <v>3399</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Industrial (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento Industrial (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto Parque Villarrica (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6000</v>
+        <v>170</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
+          <t>Proyecto Parque Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Antonio Donato Roa Astete</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>356</v>
+        <v>6000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>17/03/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Antonio Donato Roa Astete</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>17/03/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Piscicultura Loncotraro (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>GERMAN RIBBA ALVAREZ</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/10/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
+          <t>Piscicultura Loncotraro (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
+          <t>GERMAN RIBBA ALVAREZ</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>05/08/2004</t>
+          <t>15/10/2004</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
+          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3360</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>05/08/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Terminal de Buses Urbanos Línea 3</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa de Taxibuses RJR Ltda.</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>130</v>
+        <v>3360</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Colegio Alemán de Villarrica</t>
+          <t>Terminal de Buses Urbanos Línea 3</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
+          <t>Empresa de Taxibuses RJR Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/10/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
+          <t>Colegio Alemán de Villarrica</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Hotelera Aguas Verdes S.A.</t>
+          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/09/2002</t>
+          <t>07/10/2002</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
+          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Piscicultura Pino Guacho Estero Vásquez</t>
+          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Bernhad Jungeburth Orth</t>
+          <t>Hotelera Aguas Verdes S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>09/09/2002</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Piscicultura Sector Chesque Alto</t>
+          <t>Piscicultura Pino Guacho Estero Vásquez</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sofonías Carlos Arias Ferreira</t>
+          <t>Bernhad Jungeburth Orth</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Muelle Paseo del Lago</t>
+          <t>Piscicultura Sector Chesque Alto</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Manuel Augusto Gaete Winkelman</t>
+          <t>Sofonías Carlos Arias Ferreira</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>13/12/2001</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
+          <t>Muelle Paseo del Lago</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Manuel Augusto Gaete Winkelman</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>30/10/2001</t>
+          <t>13/12/2001</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Piscicultura Los Chilcos</t>
+          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>23/10/2001</t>
+          <t>30/10/2001</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Modificación de Plan Regulador Comunal Villarrica</t>
+          <t>Piscicultura Los Chilcos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Erwin Rafael Gudenschwager Jiménez</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10/10/2001</t>
+          <t>23/10/2001</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
+          <t>Modificación de Plan Regulador Comunal Villarrica</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Erwin Rafael Gudenschwager Jiménez</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>17/04/2001</t>
+          <t>10/10/2001</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Restaurant a Discoteca</t>
+          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Raul José San,Martín San,Martín</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>17/04/2001</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Quilentue IX Región</t>
+          <t>Modificación Proyecto Restaurant a Discoteca</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>GENTEC S.A.</t>
+          <t>Raul José San,Martín San,Martín</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
+          <t>Instalación Piscicultura Quilentue IX Región</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>GENTEC S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>03/01/2001</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Molco</t>
+          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>16000</v>
+        <v>230</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>11/12/2000</t>
+          <t>03/01/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Villarrica</t>
+          <t>Instalación Piscicultura Molco</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>11/12/2000</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
+          <t>Modificación Plan Regulador de Villarrica</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14/09/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
+          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Guillermo Patricio Leddy Fuentes</t>
+          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>750</v>
+        <v>60</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>17/02/2000</t>
+          <t>14/09/2000</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
+          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,21 +6107,21 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>17/02/2000</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
+          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Guillermo Patricio Leddy Fuentes</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
+          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Urbanización y Construcción Hijuela Pucará</t>
+          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jaime Fernando Cordero Cuevas</t>
+          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6255,17 +6255,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
+          <t>Urbanización y Construcción Hijuela Pucará</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Jaime Fernando Cordero Cuevas</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>15/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
+          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Atuan Burgos</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>15/02/1999</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF Villarrica</t>
+          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Corporación Obra Kolping Chile</t>
+          <t>Eduardo Segundo Atuan Burgos</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,12 +6424,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Villarrica</t>
+          <t>Estación de Servicios YPF Villarrica</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Constructora Villarica Ltda.</t>
+          <t>Corporación Obra Kolping Chile</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>06/04/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,12 +6472,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hostería y Centro de Capacitación Afunalhue</t>
+          <t>Relleno Sanitario Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Fundación San Cristóbal</t>
+          <t>Constructora Villarica Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>20/01/1998</t>
+          <t>06/04/1998</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
+          <t>Hostería y Centro de Capacitación Afunalhue</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
+          <t>Fundación San Cristóbal</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>20/01/1998</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
+          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Comité Habitacional Calafquén de Lican Ray</t>
+          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+          <t>Comité Habitacional Calafquén de Lican Ray</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,43 +6664,91 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>300</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>Hostería y centro de capacitación Afunalhue</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Novena</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>Fundación San Cristóbal</t>
         </is>
       </c>
-      <c r="F132" t="n">
+      <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>16/10/1997</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747876&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>Villarrica</t>
         </is>

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto DOMO</t>
+          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Francisco Javier Espinoza Rojas</t>
+          <t>Ilustre Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>868</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>06/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
+          <t>Proyecto DOMO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>31/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Casa H</t>
+          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cristóbal Echeverría Schmidt</t>
+          <t>Francisco Javier Espinoza Rojas</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/10/2021</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
+          <t>Casa H</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad Productora de Aridos SpA</t>
+          <t>Cristóbal Echeverría Schmidt</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/06/2021</t>
+          <t>19/10/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>Sociedad Productora de Aridos SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>29/06/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rotonda Villarica</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inmobiliaria Altas Cumbres S.A.</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>48544</v>
+        <v>11000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>04/02/2021</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
+          <t>Rotonda Villarica</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Inmobiliaria Altas Cumbres S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>104810</v>
+        <v>48544</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>04/02/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vivienda y Local Comercial</t>
+          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pedro Diego Melinao Canales</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>104810</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/12/2019</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jardín Floresta IV y V</t>
+          <t>Vivienda y Local Comercial</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PL Constructora e Inmobiliaria Ltda.</t>
+          <t>Pedro Diego Melinao Canales</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>22700</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16/12/2019</t>
+          <t>24/12/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelacion Maria Luisa</t>
+          <t>Jardín Floresta IV y V</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
+          <t>PL Constructora e Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>22700</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/10/2019</t>
+          <t>16/12/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación María Luisa</t>
+          <t>Mejoramiento Parcelacion Maria Luisa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Odette Alejandra Matamala Paredes</t>
+          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>08/10/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación Mía Luisa</t>
+          <t>Mejoramiento Parcelación María Luisa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09/07/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nueva Puntilla de Villarrica</t>
+          <t>Mejoramiento Parcelación Mía Luisa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Odette Alejandra Matamala Paredes</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12499</v>
+        <v>500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>09/07/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Alfredo Angel Cordero Tabach</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
+          <t>Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Alfredo Angel Cordero Tabach</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>300</v>
+        <v>12499</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16/05/2019</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
+          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ecasa Villarrica SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>16/05/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
+          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANIA S.A..</t>
+          <t>Inmobiliaria Ecasa Villarrica SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8700</v>
+        <v>50000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16/11/2018</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>16/11/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
+          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>28725</v>
+        <v>8700</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>31/08/2017</t>
+          <t>22/10/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
+          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4000</v>
+        <v>28725</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/08/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>28/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/11/2012</t>
+          <t>28/11/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
+          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5700</v>
+        <v>1000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>26/11/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta piloto compostaje de aserrín Villarrica</t>
+          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>comercial e industrial wm uno ltda</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>5700</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Planta piloto compostaje de aserrín Villarrica</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>comercial e industrial wm uno ltda</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,40 +2488,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANÍA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4427</v>
+        <v>100</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
+          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>AGUAS ARAUCANÍA S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,30 +2584,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>319</v>
+        <v>4427</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>512</v>
+        <v>319</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
+          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/02/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
+          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>56000</v>
+        <v>23</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03/02/2011</t>
+          <t>21/02/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
+          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GERMAN RIBBA ALVAREZ</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>40</v>
+        <v>56000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>02/09/2010</t>
+          <t>03/02/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Villarrica</t>
+          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>GERMAN RIBBA ALVAREZ</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>30/08/2010</t>
+          <t>02/09/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Plan Regulador Comunal de Villarrica</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Quilentue Limitada</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13/08/2010</t>
+          <t>30/08/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Piscicultura Newenco</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Quilentue Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07/07/2010</t>
+          <t>13/08/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
+          <t>Piscicultura Newenco</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18/05/2010</t>
+          <t>07/07/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Alberto Adolfo Peters Hitschfeld</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>18/05/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Alberto Adolfo Peters Hitschfeld</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>María Josefina Iribarren Marton</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>María Josefina Iribarren Marton</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>08/08/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Huincacara (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2500</v>
+        <v>234</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
+          <t>Regularización Piscicultura Huincacara (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>7017</v>
+        <v>2500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>7017</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5700</v>
+        <v>10</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>26/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>300</v>
+        <v>5700</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>26/07/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4686</v>
+        <v>300</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Modificación PRC Villarrica (e-seia)</t>
+          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,11 +4187,11 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22/05/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRC Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>22/05/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4283,21 +4283,21 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1870</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
+          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4060</v>
+        <v>1870</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>30/06/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3390</v>
+        <v>4060</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/05/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3870</v>
+        <v>3390</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>16/05/2006</t>
+          <t>18/05/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,12 +4600,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3399</v>
+        <v>3870</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>16/05/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,40 +4648,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>500</v>
+        <v>3399</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Industrial (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento Industrial (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Parque Villarrica (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>6000</v>
+        <v>170</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
+          <t>Proyecto Parque Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Antonio Donato Roa Astete</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>356</v>
+        <v>6000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>17/03/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Antonio Donato Roa Astete</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>17/03/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Piscicultura Loncotraro (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>GERMAN RIBBA ALVAREZ</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/10/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
+          <t>Piscicultura Loncotraro (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
+          <t>GERMAN RIBBA ALVAREZ</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>05/08/2004</t>
+          <t>15/10/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
+          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3360</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>05/08/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Terminal de Buses Urbanos Línea 3</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa de Taxibuses RJR Ltda.</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>130</v>
+        <v>3360</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Colegio Alemán de Villarrica</t>
+          <t>Terminal de Buses Urbanos Línea 3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
+          <t>Empresa de Taxibuses RJR Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/10/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
+          <t>Colegio Alemán de Villarrica</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Hotelera Aguas Verdes S.A.</t>
+          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>09/09/2002</t>
+          <t>07/10/2002</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
+          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Piscicultura Pino Guacho Estero Vásquez</t>
+          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Bernhad Jungeburth Orth</t>
+          <t>Hotelera Aguas Verdes S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>09/09/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Piscicultura Sector Chesque Alto</t>
+          <t>Piscicultura Pino Guacho Estero Vásquez</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sofonías Carlos Arias Ferreira</t>
+          <t>Bernhad Jungeburth Orth</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Muelle Paseo del Lago</t>
+          <t>Piscicultura Sector Chesque Alto</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Manuel Augusto Gaete Winkelman</t>
+          <t>Sofonías Carlos Arias Ferreira</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13/12/2001</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
+          <t>Muelle Paseo del Lago</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Manuel Augusto Gaete Winkelman</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>30/10/2001</t>
+          <t>13/12/2001</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Piscicultura Los Chilcos</t>
+          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>23/10/2001</t>
+          <t>30/10/2001</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modificación de Plan Regulador Comunal Villarrica</t>
+          <t>Piscicultura Los Chilcos</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Erwin Rafael Gudenschwager Jiménez</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10/10/2001</t>
+          <t>23/10/2001</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
+          <t>Modificación de Plan Regulador Comunal Villarrica</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Erwin Rafael Gudenschwager Jiménez</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>17/04/2001</t>
+          <t>10/10/2001</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Restaurant a Discoteca</t>
+          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Raul José San,Martín San,Martín</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>17/04/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Quilentue IX Región</t>
+          <t>Modificación Proyecto Restaurant a Discoteca</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>GENTEC S.A.</t>
+          <t>Raul José San,Martín San,Martín</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
+          <t>Instalación Piscicultura Quilentue IX Región</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>GENTEC S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>03/01/2001</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Molco</t>
+          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>16000</v>
+        <v>230</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>11/12/2000</t>
+          <t>03/01/2001</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Villarrica</t>
+          <t>Instalación Piscicultura Molco</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>11/12/2000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
+          <t>Modificación Plan Regulador de Villarrica</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>14/09/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
+          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Guillermo Patricio Leddy Fuentes</t>
+          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>750</v>
+        <v>60</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17/02/2000</t>
+          <t>14/09/2000</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
+          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,21 +6155,21 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>17/02/2000</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
+          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Guillermo Patricio Leddy Fuentes</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
+          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Urbanización y Construcción Hijuela Pucará</t>
+          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jaime Fernando Cordero Cuevas</t>
+          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
+          <t>Urbanización y Construcción Hijuela Pucará</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Jaime Fernando Cordero Cuevas</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>15/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
+          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Atuan Burgos</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>15/02/1999</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF Villarrica</t>
+          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Corporación Obra Kolping Chile</t>
+          <t>Eduardo Segundo Atuan Burgos</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,12 +6472,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Villarrica</t>
+          <t>Estación de Servicios YPF Villarrica</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Constructora Villarica Ltda.</t>
+          <t>Corporación Obra Kolping Chile</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>06/04/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,12 +6520,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hostería y Centro de Capacitación Afunalhue</t>
+          <t>Relleno Sanitario Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Fundación San Cristóbal</t>
+          <t>Constructora Villarica Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>20/01/1998</t>
+          <t>06/04/1998</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
+          <t>Hostería y Centro de Capacitación Afunalhue</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
+          <t>Fundación San Cristóbal</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>20/01/1998</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
+          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Comité Habitacional Calafquén de Lican Ray</t>
+          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+          <t>Comité Habitacional Calafquén de Lican Ray</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,43 +6712,91 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>300</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>Hostería y centro de capacitación Afunalhue</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Novena</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t>Fundación San Cristóbal</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>16/10/1997</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747876&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>Villarrica</t>
         </is>

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/04/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GERMAN RIBBA ALVAREZ</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>GERMAN RIBBA ALVAREZ</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F101" t="n">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
+          <t>snack de alimentos al paso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Villarrica</t>
+          <t>Ricardo Demis Sagal Pizarro</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>868</v>
+        <v>15</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>26/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155984494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto DOMO</t>
+          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Francisco Javier Espinoza Rojas</t>
+          <t>Ilustre Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>65</v>
+        <v>868</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
+          <t>Proyecto DOMO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>31/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Casa H</t>
+          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cristóbal Echeverría Schmidt</t>
+          <t>Francisco Javier Espinoza Rojas</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/10/2021</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
+          <t>Casa H</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad Productora de Aridos SpA</t>
+          <t>Cristóbal Echeverría Schmidt</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29/06/2021</t>
+          <t>19/10/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>Sociedad Productora de Aridos SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>29/06/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rotonda Villarica</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inmobiliaria Altas Cumbres S.A.</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>48544</v>
+        <v>11000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>04/02/2021</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
+          <t>Rotonda Villarica</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Inmobiliaria Altas Cumbres S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>104810</v>
+        <v>48544</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>04/02/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vivienda y Local Comercial</t>
+          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pedro Diego Melinao Canales</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>104810</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/12/2019</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jardín Floresta IV y V</t>
+          <t>Vivienda y Local Comercial</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PL Constructora e Inmobiliaria Ltda.</t>
+          <t>Pedro Diego Melinao Canales</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>22700</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16/12/2019</t>
+          <t>24/12/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelacion Maria Luisa</t>
+          <t>Jardín Floresta IV y V</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
+          <t>PL Constructora e Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>500</v>
+        <v>22700</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/10/2019</t>
+          <t>16/12/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación María Luisa</t>
+          <t>Mejoramiento Parcelacion Maria Luisa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Odette Alejandra Matamala Paredes</t>
+          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>08/10/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación Mía Luisa</t>
+          <t>Mejoramiento Parcelación María Luisa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>09/07/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nueva Puntilla de Villarrica</t>
+          <t>Mejoramiento Parcelación Mía Luisa</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Odette Alejandra Matamala Paredes</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12499</v>
+        <v>500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>09/07/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Alfredo Angel Cordero Tabach</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
+          <t>Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Alfredo Angel Cordero Tabach</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>12499</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16/05/2019</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
+          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ecasa Villarrica SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>16/05/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
+          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANIA S.A..</t>
+          <t>Inmobiliaria Ecasa Villarrica SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8700</v>
+        <v>50000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16/11/2018</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>16/11/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
+          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>28725</v>
+        <v>8700</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>31/08/2017</t>
+          <t>22/10/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
+          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4000</v>
+        <v>28725</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/08/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>28/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/11/2012</t>
+          <t>28/11/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
+          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5700</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>26/11/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta piloto compostaje de aserrín Villarrica</t>
+          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>comercial e industrial wm uno ltda</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>5700</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Planta piloto compostaje de aserrín Villarrica</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>comercial e industrial wm uno ltda</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,40 +2536,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANÍA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4427</v>
+        <v>100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
+          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>AGUAS ARAUCANÍA S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,30 +2632,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>319</v>
+        <v>4427</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>512</v>
+        <v>319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
+          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/02/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
+          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>56000</v>
+        <v>23</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>03/02/2011</t>
+          <t>21/02/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
+          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>40</v>
+        <v>56000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>02/09/2010</t>
+          <t>03/02/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Villarrica</t>
+          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>30/08/2010</t>
+          <t>02/09/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Plan Regulador Comunal de Villarrica</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Quilentue Limitada</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13/08/2010</t>
+          <t>30/08/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Piscicultura Newenco</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Quilentue Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>07/07/2010</t>
+          <t>13/08/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
+          <t>Piscicultura Newenco</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/05/2010</t>
+          <t>07/07/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Alberto Adolfo Peters Hitschfeld</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>18/05/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Alberto Adolfo Peters Hitschfeld</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>María Josefina Iribarren Marton</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>María Josefina Iribarren Marton</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>08/08/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Huincacara (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2500</v>
+        <v>234</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
+          <t>Regularización Piscicultura Huincacara (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>7017</v>
+        <v>2500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>7017</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5700</v>
+        <v>10</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>26/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>300</v>
+        <v>5700</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>26/07/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4686</v>
+        <v>300</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Modificación PRC Villarrica (e-seia)</t>
+          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,11 +4235,11 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22/05/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRC Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>22/05/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4331,21 +4331,21 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1870</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>30/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
+          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4060</v>
+        <v>1870</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>30/06/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3390</v>
+        <v>4060</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/05/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,12 +4600,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3870</v>
+        <v>3390</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>16/05/2006</t>
+          <t>18/05/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3399</v>
+        <v>3870</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>16/05/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,40 +4696,40 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>500</v>
+        <v>3399</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Industrial (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento Industrial (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,20 +4994,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Parque Villarrica (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>6000</v>
+        <v>170</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
+          <t>Proyecto Parque Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Antonio Donato Roa Astete</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>356</v>
+        <v>6000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>17/03/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Antonio Donato Roa Astete</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>17/03/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Piscicultura Loncotraro (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>15/10/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
+          <t>Piscicultura Loncotraro (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>05/08/2004</t>
+          <t>15/10/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
+          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3360</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>05/08/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Terminal de Buses Urbanos Línea 3</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Empresa de Taxibuses RJR Ltda.</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>130</v>
+        <v>3360</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Colegio Alemán de Villarrica</t>
+          <t>Terminal de Buses Urbanos Línea 3</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
+          <t>Empresa de Taxibuses RJR Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/10/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
+          <t>Colegio Alemán de Villarrica</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Hotelera Aguas Verdes S.A.</t>
+          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>09/09/2002</t>
+          <t>07/10/2002</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
+          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Piscicultura Pino Guacho Estero Vásquez</t>
+          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Bernhad Jungeburth Orth</t>
+          <t>Hotelera Aguas Verdes S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>09/09/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Piscicultura Sector Chesque Alto</t>
+          <t>Piscicultura Pino Guacho Estero Vásquez</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sofonías Carlos Arias Ferreira</t>
+          <t>Bernhad Jungeburth Orth</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Muelle Paseo del Lago</t>
+          <t>Piscicultura Sector Chesque Alto</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Manuel Augusto Gaete Winkelman</t>
+          <t>Sofonías Carlos Arias Ferreira</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>13/12/2001</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
+          <t>Muelle Paseo del Lago</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Manuel Augusto Gaete Winkelman</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/10/2001</t>
+          <t>13/12/2001</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Piscicultura Los Chilcos</t>
+          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/10/2001</t>
+          <t>30/10/2001</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Modificación de Plan Regulador Comunal Villarrica</t>
+          <t>Piscicultura Los Chilcos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Erwin Rafael Gudenschwager Jiménez</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10/10/2001</t>
+          <t>23/10/2001</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
+          <t>Modificación de Plan Regulador Comunal Villarrica</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Erwin Rafael Gudenschwager Jiménez</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>17/04/2001</t>
+          <t>10/10/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Restaurant a Discoteca</t>
+          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Raul José San,Martín San,Martín</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>17/04/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Quilentue IX Región</t>
+          <t>Modificación Proyecto Restaurant a Discoteca</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>GENTEC S.A.</t>
+          <t>Raul José San,Martín San,Martín</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
+          <t>Instalación Piscicultura Quilentue IX Región</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>GENTEC S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>03/01/2001</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Molco</t>
+          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>16000</v>
+        <v>230</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>11/12/2000</t>
+          <t>03/01/2001</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Villarrica</t>
+          <t>Instalación Piscicultura Molco</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>11/12/2000</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
+          <t>Modificación Plan Regulador de Villarrica</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>14/09/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
+          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Guillermo Patricio Leddy Fuentes</t>
+          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>750</v>
+        <v>60</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>17/02/2000</t>
+          <t>14/09/2000</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
+          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,21 +6203,21 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>17/02/2000</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
+          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Guillermo Patricio Leddy Fuentes</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
+          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Urbanización y Construcción Hijuela Pucará</t>
+          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jaime Fernando Cordero Cuevas</t>
+          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
+          <t>Urbanización y Construcción Hijuela Pucará</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Jaime Fernando Cordero Cuevas</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>15/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
+          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Atuan Burgos</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>15/02/1999</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF Villarrica</t>
+          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Corporación Obra Kolping Chile</t>
+          <t>Eduardo Segundo Atuan Burgos</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,12 +6520,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Villarrica</t>
+          <t>Estación de Servicios YPF Villarrica</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Constructora Villarica Ltda.</t>
+          <t>Corporación Obra Kolping Chile</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>06/04/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,12 +6568,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Hostería y Centro de Capacitación Afunalhue</t>
+          <t>Relleno Sanitario Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Fundación San Cristóbal</t>
+          <t>Constructora Villarica Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>20/01/1998</t>
+          <t>06/04/1998</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
+          <t>Hostería y Centro de Capacitación Afunalhue</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
+          <t>Fundación San Cristóbal</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>20/01/1998</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
+          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,11 +6679,11 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Comité Habitacional Calafquén de Lican Ray</t>
+          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+          <t>Comité Habitacional Calafquén de Lican Ray</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,43 +6760,91 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>300</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
           <t>Hostería y centro de capacitación Afunalhue</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Novena</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t>Fundación San Cristóbal</t>
         </is>
       </c>
-      <c r="F134" t="n">
+      <c r="F135" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>16/10/1997</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747876&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>Villarrica</t>
         </is>

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -1508,7 +1508,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>snack de alimentos al paso</t>
+          <t>VIVIENDA UNIFAMILIAR DE 225,32 M2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ricardo Demis Sagal Pizarro</t>
+          <t>eduardo Alejandro Valdes Mansilla</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/05/2022</t>
+          <t>09/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155984494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157907283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
+          <t>snack de alimentos al paso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Villarrica</t>
+          <t>Ricardo Demis Sagal Pizarro</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>868</v>
+        <v>15</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>26/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155984494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto DOMO</t>
+          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Francisco Javier Espinoza Rojas</t>
+          <t>Ilustre Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>65</v>
+        <v>868</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
+          <t>Proyecto DOMO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>31/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Casa H</t>
+          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cristóbal Echeverría Schmidt</t>
+          <t>Francisco Javier Espinoza Rojas</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/10/2021</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
+          <t>Casa H</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sociedad Productora de Aridos SpA</t>
+          <t>Cristóbal Echeverría Schmidt</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>29/06/2021</t>
+          <t>19/10/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>Sociedad Productora de Aridos SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>29/06/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17/04/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rotonda Villarica</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria Altas Cumbres S.A.</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>48544</v>
+        <v>11000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>04/02/2021</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
+          <t>Rotonda Villarica</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Inmobiliaria Altas Cumbres S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>104810</v>
+        <v>48544</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>04/02/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vivienda y Local Comercial</t>
+          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pedro Diego Melinao Canales</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>104810</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/12/2019</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jardín Floresta IV y V</t>
+          <t>Vivienda y Local Comercial</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PL Constructora e Inmobiliaria Ltda.</t>
+          <t>Pedro Diego Melinao Canales</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>22700</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16/12/2019</t>
+          <t>24/12/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelacion Maria Luisa</t>
+          <t>Jardín Floresta IV y V</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
+          <t>PL Constructora e Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>500</v>
+        <v>22700</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/10/2019</t>
+          <t>16/12/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación María Luisa</t>
+          <t>Mejoramiento Parcelacion Maria Luisa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Odette Alejandra Matamala Paredes</t>
+          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>08/10/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación Mía Luisa</t>
+          <t>Mejoramiento Parcelación María Luisa</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>09/07/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nueva Puntilla de Villarrica</t>
+          <t>Mejoramiento Parcelación Mía Luisa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Odette Alejandra Matamala Paredes</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12499</v>
+        <v>500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>09/07/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Alfredo Angel Cordero Tabach</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
+          <t>Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Alfredo Angel Cordero Tabach</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>300</v>
+        <v>12499</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16/05/2019</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
+          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ecasa Villarrica SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>16/05/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
+          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANIA S.A..</t>
+          <t>Inmobiliaria Ecasa Villarrica SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8700</v>
+        <v>50000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>16/11/2018</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>16/11/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
+          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>28725</v>
+        <v>8700</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>31/08/2017</t>
+          <t>22/10/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
+          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4000</v>
+        <v>28725</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/08/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>28/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/11/2012</t>
+          <t>28/11/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
+          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5700</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>26/11/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Planta piloto compostaje de aserrín Villarrica</t>
+          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>comercial e industrial wm uno ltda</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>5700</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Planta piloto compostaje de aserrín Villarrica</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>comercial e industrial wm uno ltda</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,40 +2584,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANÍA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4427</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
+          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>AGUAS ARAUCANÍA S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,30 +2680,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>319</v>
+        <v>4427</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>512</v>
+        <v>319</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
+          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/02/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
+          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>56000</v>
+        <v>23</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>03/02/2011</t>
+          <t>21/02/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
+          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>40</v>
+        <v>56000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02/09/2010</t>
+          <t>03/02/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Villarrica</t>
+          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/08/2010</t>
+          <t>02/09/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Plan Regulador Comunal de Villarrica</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Quilentue Limitada</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/08/2010</t>
+          <t>30/08/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Piscicultura Newenco</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Quilentue Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>07/07/2010</t>
+          <t>13/08/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
+          <t>Piscicultura Newenco</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18/05/2010</t>
+          <t>07/07/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Alberto Adolfo Peters Hitschfeld</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>18/05/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Alberto Adolfo Peters Hitschfeld</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>María Josefina Iribarren Marton</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>María Josefina Iribarren Marton</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>08/08/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Huincacara (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2500</v>
+        <v>234</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
+          <t>Regularización Piscicultura Huincacara (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>7017</v>
+        <v>2500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>7017</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5700</v>
+        <v>10</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>26/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>300</v>
+        <v>5700</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>26/07/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4686</v>
+        <v>300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Modificación PRC Villarrica (e-seia)</t>
+          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4283,11 +4283,11 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22/05/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRC Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>22/05/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4379,21 +4379,21 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1870</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
+          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4060</v>
+        <v>1870</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>30/06/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,12 +4600,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3390</v>
+        <v>4060</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>18/05/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3870</v>
+        <v>3390</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>16/05/2006</t>
+          <t>18/05/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3399</v>
+        <v>3870</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>16/05/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,40 +4744,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>500</v>
+        <v>3399</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Industrial (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento Industrial (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Parque Villarrica (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,20 +5090,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>6000</v>
+        <v>170</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
+          <t>Proyecto Parque Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Antonio Donato Roa Astete</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>356</v>
+        <v>6000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>17/03/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Antonio Donato Roa Astete</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>17/03/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Piscicultura Loncotraro (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>15/10/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
+          <t>Piscicultura Loncotraro (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>05/08/2004</t>
+          <t>15/10/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
+          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3360</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>05/08/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Terminal de Buses Urbanos Línea 3</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa de Taxibuses RJR Ltda.</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>130</v>
+        <v>3360</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Colegio Alemán de Villarrica</t>
+          <t>Terminal de Buses Urbanos Línea 3</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
+          <t>Empresa de Taxibuses RJR Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/10/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
+          <t>Colegio Alemán de Villarrica</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Hotelera Aguas Verdes S.A.</t>
+          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>09/09/2002</t>
+          <t>07/10/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
+          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Piscicultura Pino Guacho Estero Vásquez</t>
+          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Bernhad Jungeburth Orth</t>
+          <t>Hotelera Aguas Verdes S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>09/09/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Piscicultura Sector Chesque Alto</t>
+          <t>Piscicultura Pino Guacho Estero Vásquez</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sofonías Carlos Arias Ferreira</t>
+          <t>Bernhad Jungeburth Orth</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Muelle Paseo del Lago</t>
+          <t>Piscicultura Sector Chesque Alto</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Manuel Augusto Gaete Winkelman</t>
+          <t>Sofonías Carlos Arias Ferreira</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>13/12/2001</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
+          <t>Muelle Paseo del Lago</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Manuel Augusto Gaete Winkelman</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/10/2001</t>
+          <t>13/12/2001</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Piscicultura Los Chilcos</t>
+          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>23/10/2001</t>
+          <t>30/10/2001</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Modificación de Plan Regulador Comunal Villarrica</t>
+          <t>Piscicultura Los Chilcos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Erwin Rafael Gudenschwager Jiménez</t>
+          <t>Salmones Multiexport Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10/10/2001</t>
+          <t>23/10/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
+          <t>Modificación de Plan Regulador Comunal Villarrica</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Erwin Rafael Gudenschwager Jiménez</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>17/04/2001</t>
+          <t>10/10/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Restaurant a Discoteca</t>
+          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Raul José San,Martín San,Martín</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>17/04/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Quilentue IX Región</t>
+          <t>Modificación Proyecto Restaurant a Discoteca</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>GENTEC S.A.</t>
+          <t>Raul José San,Martín San,Martín</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
+          <t>Instalación Piscicultura Quilentue IX Región</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>GENTEC S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>03/01/2001</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Molco</t>
+          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>16000</v>
+        <v>230</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>11/12/2000</t>
+          <t>03/01/2001</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Villarrica</t>
+          <t>Instalación Piscicultura Molco</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>11/12/2000</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
+          <t>Modificación Plan Regulador de Villarrica</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>14/09/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
+          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Guillermo Patricio Leddy Fuentes</t>
+          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>750</v>
+        <v>60</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>17/02/2000</t>
+          <t>14/09/2000</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
+          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,21 +6251,21 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>17/02/2000</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
+          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Guillermo Patricio Leddy Fuentes</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
+          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Urbanización y Construcción Hijuela Pucará</t>
+          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jaime Fernando Cordero Cuevas</t>
+          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6399,17 +6399,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
+          <t>Urbanización y Construcción Hijuela Pucará</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Jaime Fernando Cordero Cuevas</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>15/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
+          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Atuan Burgos</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>15/02/1999</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF Villarrica</t>
+          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Corporación Obra Kolping Chile</t>
+          <t>Eduardo Segundo Atuan Burgos</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,12 +6568,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Villarrica</t>
+          <t>Estación de Servicios YPF Villarrica</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Constructora Villarica Ltda.</t>
+          <t>Corporación Obra Kolping Chile</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>06/04/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,12 +6616,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hostería y Centro de Capacitación Afunalhue</t>
+          <t>Relleno Sanitario Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Fundación San Cristóbal</t>
+          <t>Constructora Villarica Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>20/01/1998</t>
+          <t>06/04/1998</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
+          <t>Hostería y Centro de Capacitación Afunalhue</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
+          <t>Fundación San Cristóbal</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>20/01/1998</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
+          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Comité Habitacional Calafquén de Lican Ray</t>
+          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+          <t>Comité Habitacional Calafquén de Lican Ray</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,43 +6808,91 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
+          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>300</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
           <t>Hostería y centro de capacitación Afunalhue</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Novena</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>Fundación San Cristóbal</t>
         </is>
       </c>
-      <c r="F135" t="n">
+      <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>16/10/1997</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747876&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>Villarrica</t>
         </is>

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Salmones Multiexport Ltda.</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VIVIENDA UNIFAMILIAR DE 225,32 M2</t>
+          <t>Galpón Mueblería Tronconoble</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>eduardo Alejandro Valdes Mansilla</t>
+          <t>Tomás Andrés Gutiérrez Maurer</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/12/2022</t>
+          <t>03/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157907283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159763449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>snack de alimentos al paso</t>
+          <t>VIVIENDA UNIFAMILIAR DE 225,32 M2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ricardo Demis Sagal Pizarro</t>
+          <t>eduardo Alejandro Valdes Mansilla</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/05/2022</t>
+          <t>09/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155984494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157907283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
+          <t>snack de alimentos al paso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Villarrica</t>
+          <t>Ricardo Demis Sagal Pizarro</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>868</v>
+        <v>15</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>26/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155984494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto DOMO</t>
+          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Francisco Javier Espinoza Rojas</t>
+          <t>Ilustre Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>65</v>
+        <v>868</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
+          <t>Proyecto DOMO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>31/03/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Casa H</t>
+          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cristóbal Echeverría Schmidt</t>
+          <t>Francisco Javier Espinoza Rojas</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/10/2021</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
+          <t>Casa H</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sociedad Productora de Aridos SpA</t>
+          <t>Cristóbal Echeverría Schmidt</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>29/06/2021</t>
+          <t>19/10/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>Sociedad Productora de Aridos SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>29/06/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17/04/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rotonda Villarica</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria Altas Cumbres S.A.</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>48544</v>
+        <v>11000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>04/02/2021</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
+          <t>Rotonda Villarica</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Inmobiliaria Altas Cumbres S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>104810</v>
+        <v>48544</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>04/02/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vivienda y Local Comercial</t>
+          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pedro Diego Melinao Canales</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>104810</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/12/2019</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jardín Floresta IV y V</t>
+          <t>Vivienda y Local Comercial</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PL Constructora e Inmobiliaria Ltda.</t>
+          <t>Pedro Diego Melinao Canales</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>22700</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16/12/2019</t>
+          <t>24/12/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelacion Maria Luisa</t>
+          <t>Jardín Floresta IV y V</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
+          <t>PL Constructora e Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>500</v>
+        <v>22700</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/10/2019</t>
+          <t>16/12/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación María Luisa</t>
+          <t>Mejoramiento Parcelacion Maria Luisa</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Odette Alejandra Matamala Paredes</t>
+          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>08/10/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación Mía Luisa</t>
+          <t>Mejoramiento Parcelación María Luisa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/07/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nueva Puntilla de Villarrica</t>
+          <t>Mejoramiento Parcelación Mía Luisa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Odette Alejandra Matamala Paredes</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12499</v>
+        <v>500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>09/07/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Alfredo Angel Cordero Tabach</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
+          <t>Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Alfredo Angel Cordero Tabach</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>300</v>
+        <v>12499</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16/05/2019</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
+          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ecasa Villarrica SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>16/05/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
+          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANIA S.A..</t>
+          <t>Inmobiliaria Ecasa Villarrica SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8700</v>
+        <v>50000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16/11/2018</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>16/11/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
+          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>28725</v>
+        <v>8700</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>31/08/2017</t>
+          <t>22/10/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
+          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4000</v>
+        <v>28725</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/08/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>28/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/11/2012</t>
+          <t>28/11/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
+          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5700</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>26/11/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Planta piloto compostaje de aserrín Villarrica</t>
+          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>comercial e industrial wm uno ltda</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>5700</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Planta piloto compostaje de aserrín Villarrica</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>comercial e industrial wm uno ltda</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,40 +2632,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANÍA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4427</v>
+        <v>100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
+          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>AGUAS ARAUCANÍA S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,30 +2728,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>319</v>
+        <v>4427</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>512</v>
+        <v>319</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
+          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/02/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
+          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>56000</v>
+        <v>23</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>03/02/2011</t>
+          <t>21/02/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
+          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>40</v>
+        <v>56000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>02/09/2010</t>
+          <t>03/02/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Villarrica</t>
+          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>30/08/2010</t>
+          <t>02/09/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Plan Regulador Comunal de Villarrica</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Quilentue Limitada</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/08/2010</t>
+          <t>30/08/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Piscicultura Newenco</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Quilentue Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>07/07/2010</t>
+          <t>13/08/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
+          <t>Piscicultura Newenco</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18/05/2010</t>
+          <t>07/07/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Alberto Adolfo Peters Hitschfeld</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>18/05/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Alberto Adolfo Peters Hitschfeld</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>María Josefina Iribarren Marton</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>María Josefina Iribarren Marton</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>08/08/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Huincacara (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2500</v>
+        <v>234</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
+          <t>Regularización Piscicultura Huincacara (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>7017</v>
+        <v>2500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>7017</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5700</v>
+        <v>10</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>26/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>5700</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>26/07/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4686</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Modificación PRC Villarrica (e-seia)</t>
+          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4331,11 +4331,11 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>22/05/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRC Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>22/05/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4427,21 +4427,21 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1870</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
+          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4060</v>
+        <v>1870</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>30/06/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3390</v>
+        <v>4060</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>18/05/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3870</v>
+        <v>3390</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>16/05/2006</t>
+          <t>18/05/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3399</v>
+        <v>3870</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>16/05/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,40 +4792,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>3399</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Industrial (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento Industrial (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,20 +5090,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Parque Villarrica (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,20 +5138,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>6000</v>
+        <v>170</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
+          <t>Proyecto Parque Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Antonio Donato Roa Astete</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>356</v>
+        <v>6000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>17/03/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Antonio Donato Roa Astete</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>17/03/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Piscicultura Loncotraro (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15/10/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
+          <t>Piscicultura Loncotraro (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>05/08/2004</t>
+          <t>15/10/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
+          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3360</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>05/08/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Terminal de Buses Urbanos Línea 3</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Empresa de Taxibuses RJR Ltda.</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>130</v>
+        <v>3360</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Colegio Alemán de Villarrica</t>
+          <t>Terminal de Buses Urbanos Línea 3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
+          <t>Empresa de Taxibuses RJR Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/10/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
+          <t>Colegio Alemán de Villarrica</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Hotelera Aguas Verdes S.A.</t>
+          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>09/09/2002</t>
+          <t>07/10/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
+          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Piscicultura Pino Guacho Estero Vásquez</t>
+          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Bernhad Jungeburth Orth</t>
+          <t>Hotelera Aguas Verdes S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>09/09/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Piscicultura Sector Chesque Alto</t>
+          <t>Piscicultura Pino Guacho Estero Vásquez</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sofonías Carlos Arias Ferreira</t>
+          <t>Bernhad Jungeburth Orth</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Muelle Paseo del Lago</t>
+          <t>Piscicultura Sector Chesque Alto</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Manuel Augusto Gaete Winkelman</t>
+          <t>Sofonías Carlos Arias Ferreira</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5727,17 +5727,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>13/12/2001</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
+          <t>Muelle Paseo del Lago</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Manuel Augusto Gaete Winkelman</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/10/2001</t>
+          <t>13/12/2001</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Piscicultura Los Chilcos</t>
+          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>23/10/2001</t>
+          <t>30/10/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Modificación de Plan Regulador Comunal Villarrica</t>
+          <t>Piscicultura Los Chilcos</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Erwin Rafael Gudenschwager Jiménez</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10/10/2001</t>
+          <t>23/10/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
+          <t>Modificación de Plan Regulador Comunal Villarrica</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Erwin Rafael Gudenschwager Jiménez</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>17/04/2001</t>
+          <t>10/10/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Restaurant a Discoteca</t>
+          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Raul José San,Martín San,Martín</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>17/04/2001</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Quilentue IX Región</t>
+          <t>Modificación Proyecto Restaurant a Discoteca</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>GENTEC S.A.</t>
+          <t>Raul José San,Martín San,Martín</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
+          <t>Instalación Piscicultura Quilentue IX Región</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>GENTEC S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>03/01/2001</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Molco</t>
+          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>16000</v>
+        <v>230</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>11/12/2000</t>
+          <t>03/01/2001</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Villarrica</t>
+          <t>Instalación Piscicultura Molco</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>11/12/2000</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
+          <t>Modificación Plan Regulador de Villarrica</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>14/09/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
+          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Guillermo Patricio Leddy Fuentes</t>
+          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>750</v>
+        <v>60</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>17/02/2000</t>
+          <t>14/09/2000</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
+          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,21 +6299,21 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>17/02/2000</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
+          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Guillermo Patricio Leddy Fuentes</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
+          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Urbanización y Construcción Hijuela Pucará</t>
+          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Jaime Fernando Cordero Cuevas</t>
+          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6447,17 +6447,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
+          <t>Urbanización y Construcción Hijuela Pucará</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Jaime Fernando Cordero Cuevas</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>15/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
+          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Atuan Burgos</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>15/02/1999</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF Villarrica</t>
+          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Corporación Obra Kolping Chile</t>
+          <t>Eduardo Segundo Atuan Burgos</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,12 +6616,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Villarrica</t>
+          <t>Estación de Servicios YPF Villarrica</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Constructora Villarica Ltda.</t>
+          <t>Corporación Obra Kolping Chile</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>06/04/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,12 +6664,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Hostería y Centro de Capacitación Afunalhue</t>
+          <t>Relleno Sanitario Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Fundación San Cristóbal</t>
+          <t>Constructora Villarica Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>20/01/1998</t>
+          <t>06/04/1998</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
+          <t>Hostería y Centro de Capacitación Afunalhue</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
+          <t>Fundación San Cristóbal</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>20/01/1998</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
+          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Comité Habitacional Calafquén de Lican Ray</t>
+          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+          <t>Comité Habitacional Calafquén de Lican Ray</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,43 +6856,91 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
+          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>300</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
           <t>Hostería y centro de capacitación Afunalhue</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Novena</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t>Fundación San Cristóbal</t>
         </is>
       </c>
-      <c r="F136" t="n">
+      <c r="F137" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>16/10/1997</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747876&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>Villarrica</t>
         </is>

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Galpón Mueblería Tronconoble</t>
+          <t>Ajuste Operacional y Plan de Cierre Relleno Sanitario Villarrica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tomás Andrés Gutiérrez Maurer</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159763449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160120862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIVIENDA UNIFAMILIAR DE 225,32 M2</t>
+          <t>Galpón Mueblería Tronconoble</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>eduardo Alejandro Valdes Mansilla</t>
+          <t>Tomás Andrés Gutiérrez Maurer</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/12/2022</t>
+          <t>03/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157907283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159763449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>snack de alimentos al paso</t>
+          <t>VIVIENDA UNIFAMILIAR DE 225,32 M2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ricardo Demis Sagal Pizarro</t>
+          <t>eduardo Alejandro Valdes Mansilla</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/05/2022</t>
+          <t>09/12/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155984494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157907283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
+          <t>snack de alimentos al paso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Villarrica</t>
+          <t>Ricardo Demis Sagal Pizarro</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>868</v>
+        <v>15</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>26/05/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155984494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto DOMO</t>
+          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Francisco Javier Espinoza Rojas</t>
+          <t>Ilustre Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>65</v>
+        <v>868</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
+          <t>Proyecto DOMO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>31/03/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Casa H</t>
+          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cristóbal Echeverría Schmidt</t>
+          <t>Francisco Javier Espinoza Rojas</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/10/2021</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
+          <t>Casa H</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sociedad Productora de Aridos SpA</t>
+          <t>Cristóbal Echeverría Schmidt</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>29/06/2021</t>
+          <t>19/10/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>Sociedad Productora de Aridos SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>29/06/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17/04/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rotonda Villarica</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria Altas Cumbres S.A.</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>48544</v>
+        <v>11000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>04/02/2021</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
+          <t>Rotonda Villarica</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Inmobiliaria Altas Cumbres S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>104810</v>
+        <v>48544</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>04/02/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vivienda y Local Comercial</t>
+          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pedro Diego Melinao Canales</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>104810</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/12/2019</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jardín Floresta IV y V</t>
+          <t>Vivienda y Local Comercial</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PL Constructora e Inmobiliaria Ltda.</t>
+          <t>Pedro Diego Melinao Canales</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>22700</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16/12/2019</t>
+          <t>24/12/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelacion Maria Luisa</t>
+          <t>Jardín Floresta IV y V</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
+          <t>PL Constructora e Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>500</v>
+        <v>22700</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/10/2019</t>
+          <t>16/12/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación María Luisa</t>
+          <t>Mejoramiento Parcelacion Maria Luisa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Odette Alejandra Matamala Paredes</t>
+          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>08/10/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación Mía Luisa</t>
+          <t>Mejoramiento Parcelación María Luisa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/07/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nueva Puntilla de Villarrica</t>
+          <t>Mejoramiento Parcelación Mía Luisa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Odette Alejandra Matamala Paredes</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>12499</v>
+        <v>500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>09/07/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Alfredo Angel Cordero Tabach</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
+          <t>Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Alfredo Angel Cordero Tabach</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>300</v>
+        <v>12499</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>16/05/2019</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
+          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ecasa Villarrica SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>16/05/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
+          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANIA S.A..</t>
+          <t>Inmobiliaria Ecasa Villarrica SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8700</v>
+        <v>50000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16/11/2018</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>16/11/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
+          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>28725</v>
+        <v>8700</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/08/2017</t>
+          <t>22/10/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
+          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4000</v>
+        <v>28725</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/08/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>28/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>26/11/2012</t>
+          <t>28/11/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
+          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5700</v>
+        <v>1000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>26/11/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Planta piloto compostaje de aserrín Villarrica</t>
+          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>comercial e industrial wm uno ltda</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>5700</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Planta piloto compostaje de aserrín Villarrica</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>comercial e industrial wm uno ltda</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,40 +2680,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANÍA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4427</v>
+        <v>100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
+          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>AGUAS ARAUCANÍA S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,30 +2776,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>319</v>
+        <v>4427</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>512</v>
+        <v>319</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
+          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/02/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
+          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>56000</v>
+        <v>23</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>03/02/2011</t>
+          <t>21/02/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
+          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>40</v>
+        <v>56000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>02/09/2010</t>
+          <t>03/02/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Villarrica</t>
+          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>30/08/2010</t>
+          <t>02/09/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Plan Regulador Comunal de Villarrica</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Quilentue Limitada</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/08/2010</t>
+          <t>30/08/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Piscicultura Newenco</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Quilentue Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>07/07/2010</t>
+          <t>13/08/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
+          <t>Piscicultura Newenco</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18/05/2010</t>
+          <t>07/07/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Alberto Adolfo Peters Hitschfeld</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>18/05/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Alberto Adolfo Peters Hitschfeld</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>María Josefina Iribarren Marton</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>María Josefina Iribarren Marton</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>08/08/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Huincacara (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2500</v>
+        <v>234</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
+          <t>Regularización Piscicultura Huincacara (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>7017</v>
+        <v>2500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>7017</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5700</v>
+        <v>10</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>26/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>5700</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>26/07/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4686</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Modificación PRC Villarrica (e-seia)</t>
+          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4379,11 +4379,11 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>22/05/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRC Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>22/05/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4475,21 +4475,21 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1870</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>30/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
+          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4060</v>
+        <v>1870</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>30/06/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3390</v>
+        <v>4060</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>18/05/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3870</v>
+        <v>3390</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>16/05/2006</t>
+          <t>18/05/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3399</v>
+        <v>3870</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>16/05/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,40 +4840,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>3399</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Industrial (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento Industrial (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,20 +5138,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Parque Villarrica (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>6000</v>
+        <v>170</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
+          <t>Proyecto Parque Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Antonio Donato Roa Astete</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>356</v>
+        <v>6000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>17/03/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Antonio Donato Roa Astete</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>17/03/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Piscicultura Loncotraro (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15/10/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
+          <t>Piscicultura Loncotraro (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>05/08/2004</t>
+          <t>15/10/2004</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
+          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3360</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>05/08/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Terminal de Buses Urbanos Línea 3</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Empresa de Taxibuses RJR Ltda.</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>130</v>
+        <v>3360</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Colegio Alemán de Villarrica</t>
+          <t>Terminal de Buses Urbanos Línea 3</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
+          <t>Empresa de Taxibuses RJR Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/10/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
+          <t>Colegio Alemán de Villarrica</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Hotelera Aguas Verdes S.A.</t>
+          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>09/09/2002</t>
+          <t>07/10/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
+          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Piscicultura Pino Guacho Estero Vásquez</t>
+          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Bernhad Jungeburth Orth</t>
+          <t>Hotelera Aguas Verdes S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>09/09/2002</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Piscicultura Sector Chesque Alto</t>
+          <t>Piscicultura Pino Guacho Estero Vásquez</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sofonías Carlos Arias Ferreira</t>
+          <t>Bernhad Jungeburth Orth</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Muelle Paseo del Lago</t>
+          <t>Piscicultura Sector Chesque Alto</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Manuel Augusto Gaete Winkelman</t>
+          <t>Sofonías Carlos Arias Ferreira</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>13/12/2001</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
+          <t>Muelle Paseo del Lago</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Manuel Augusto Gaete Winkelman</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30/10/2001</t>
+          <t>13/12/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Piscicultura Los Chilcos</t>
+          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5871,17 +5871,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23/10/2001</t>
+          <t>30/10/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Modificación de Plan Regulador Comunal Villarrica</t>
+          <t>Piscicultura Los Chilcos</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Erwin Rafael Gudenschwager Jiménez</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10/10/2001</t>
+          <t>23/10/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
+          <t>Modificación de Plan Regulador Comunal Villarrica</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Erwin Rafael Gudenschwager Jiménez</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>17/04/2001</t>
+          <t>10/10/2001</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Restaurant a Discoteca</t>
+          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Raul José San,Martín San,Martín</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>17/04/2001</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Quilentue IX Región</t>
+          <t>Modificación Proyecto Restaurant a Discoteca</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>GENTEC S.A.</t>
+          <t>Raul José San,Martín San,Martín</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
+          <t>Instalación Piscicultura Quilentue IX Región</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>GENTEC S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>03/01/2001</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Molco</t>
+          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>16000</v>
+        <v>230</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>11/12/2000</t>
+          <t>03/01/2001</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Villarrica</t>
+          <t>Instalación Piscicultura Molco</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>11/12/2000</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
+          <t>Modificación Plan Regulador de Villarrica</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>14/09/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
+          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Guillermo Patricio Leddy Fuentes</t>
+          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>750</v>
+        <v>60</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>17/02/2000</t>
+          <t>14/09/2000</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
+          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6347,21 +6347,21 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>17/02/2000</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
+          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Guillermo Patricio Leddy Fuentes</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
+          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Urbanización y Construcción Hijuela Pucará</t>
+          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Jaime Fernando Cordero Cuevas</t>
+          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
+          <t>Urbanización y Construcción Hijuela Pucará</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Jaime Fernando Cordero Cuevas</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>15/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
+          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Atuan Burgos</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>15/02/1999</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF Villarrica</t>
+          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Corporación Obra Kolping Chile</t>
+          <t>Eduardo Segundo Atuan Burgos</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,12 +6664,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Villarrica</t>
+          <t>Estación de Servicios YPF Villarrica</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Constructora Villarica Ltda.</t>
+          <t>Corporación Obra Kolping Chile</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06/04/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,12 +6712,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Hostería y Centro de Capacitación Afunalhue</t>
+          <t>Relleno Sanitario Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Fundación San Cristóbal</t>
+          <t>Constructora Villarica Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>20/01/1998</t>
+          <t>06/04/1998</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
+          <t>Hostería y Centro de Capacitación Afunalhue</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
+          <t>Fundación San Cristóbal</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>20/01/1998</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
+          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Comité Habitacional Calafquén de Lican Ray</t>
+          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+          <t>Comité Habitacional Calafquén de Lican Ray</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,43 +6904,91 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>300</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
           <t>Hostería y centro de capacitación Afunalhue</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Novena</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>Fundación San Cristóbal</t>
         </is>
       </c>
-      <c r="F137" t="n">
+      <c r="F138" t="n">
         <v>0</v>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>16/10/1997</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747876&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>Villarrica</t>
         </is>

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160120862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160491622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Galpón Mueblería Tronconoble</t>
+          <t>Ajuste Operacional y Plan de Cierre Relleno Sanitario Villarrica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tomás Andrés Gutiérrez Maurer</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159763449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160120862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VIVIENDA UNIFAMILIAR DE 225,32 M2</t>
+          <t>Galpón Mueblería Tronconoble</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>eduardo Alejandro Valdes Mansilla</t>
+          <t>Tomás Andrés Gutiérrez Maurer</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/12/2022</t>
+          <t>03/08/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157907283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159763449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>snack de alimentos al paso</t>
+          <t>VIVIENDA UNIFAMILIAR DE 225,32 M2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ricardo Demis Sagal Pizarro</t>
+          <t>eduardo Alejandro Valdes Mansilla</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26/05/2022</t>
+          <t>09/12/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155984494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157907283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
+          <t>snack de alimentos al paso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Villarrica</t>
+          <t>Ricardo Demis Sagal Pizarro</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>868</v>
+        <v>15</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>26/05/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155984494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Proyecto DOMO</t>
+          <t>Plan de Cierre Antiguo Vertedero Municipal Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Francisco Javier Espinoza Rojas</t>
+          <t>Ilustre Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>65</v>
+        <v>868</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155505146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
+          <t>Proyecto DOMO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>31/03/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155538753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Casa H</t>
+          <t>Proyecto de Obra Nueva Vivienda Unifamiliar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cristóbal Echeverría Schmidt</t>
+          <t>Francisco Javier Espinoza Rojas</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>650</v>
+        <v>65</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/10/2021</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155408635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
+          <t>Casa H</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociedad Productora de Aridos SpA</t>
+          <t>Cristóbal Echeverría Schmidt</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>29/06/2021</t>
+          <t>19/10/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153472474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Extracción de Áridos Camino viejo Pitrufquén km 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>Sociedad Productora de Aridos SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>29/06/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152380652&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico El Rincon</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE AMBAR SPA</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/05/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151787707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>19/05/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151789421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Punta</t>
+          <t>Parque Fotovoltaico El Rincon</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
+          <t>ENERGIA RENOVABLE AMBAR SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17/04/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151474571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rotonda Villarica</t>
+          <t>Parque Fotovoltaico La Punta</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria Altas Cumbres S.A.</t>
+          <t>ENERGIA RENOVABLE TOPACIO SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>48544</v>
+        <v>11000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11/02/2021</t>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151476163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04/02/2021</t>
+          <t>11/02/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150724713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
+          <t>Rotonda Villarica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Inmobiliaria Altas Cumbres S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>104810</v>
+        <v>48544</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>04/02/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150699571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vivienda y Local Comercial</t>
+          <t>Modificación del Proyecto Inmobiliario Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pedro Diego Melinao Canales</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>104810</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/12/2019</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148543312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jardín Floresta IV y V</t>
+          <t>Vivienda y Local Comercial</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PL Constructora e Inmobiliaria Ltda.</t>
+          <t>Pedro Diego Melinao Canales</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>22700</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16/12/2019</t>
+          <t>24/12/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelacion Maria Luisa</t>
+          <t>Jardín Floresta IV y V</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
+          <t>PL Constructora e Inmobiliaria Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>500</v>
+        <v>22700</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/10/2019</t>
+          <t>16/12/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145155070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación María Luisa</t>
+          <t>Mejoramiento Parcelacion Maria Luisa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Odette Alejandra Matamala Paredes</t>
+          <t>INMOBILIARIA MEDITERRANEO LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18/07/2019</t>
+          <t>08/10/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144350588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mejoramiento Parcelación Mía Luisa</t>
+          <t>Mejoramiento Parcelación María Luisa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>09/07/2019</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143727806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nueva Puntilla de Villarrica</t>
+          <t>Mejoramiento Parcelación Mía Luisa</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
+          <t>Odette Alejandra Matamala Paredes</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>12499</v>
+        <v>500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>09/07/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143527472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Alfredo Angel Cordero Tabach</t>
+          <t>Inmobiliaria La Puntilla de Villarrica SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143347528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
+          <t>Nueva Puntilla de Villarrica</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Alfredo Angel Cordero Tabach</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>300</v>
+        <v>12499</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16/05/2019</t>
+          <t>27/05/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143265054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
+          <t>Extracción de Áridos ARIMIX, Sector Putúe Bajo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ecasa Villarrica SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>16/05/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
+          <t>PROYECTO INMOBILIARIO PAIHUEN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANIA S.A..</t>
+          <t>Inmobiliaria Ecasa Villarrica SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8700</v>
+        <v>50000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16/11/2018</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142775029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/10/2018</t>
+          <t>16/11/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141819568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
+          <t>Sistema de Recolección y Tratamiento de Aguas Servidas de la Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
+          <t>AGUAS ARAUCANIA S.A..</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>28725</v>
+        <v>8700</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31/08/2017</t>
+          <t>22/10/2018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141600055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
+          <t>CCAF Centro Turístico Villarrica, Caja de Compensación Los Andes</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Caja de Compensación de Asignación Familiar Los Andes</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>28725</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>31/08/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132582964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Mejoramiento Ambiental de Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131686664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>28/11/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>26/11/2012</t>
+          <t>28/11/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7581147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
+          <t>Modificación Piscicultura Los Ríos, Incorporación Nuevo Lote (Sin Aumento de Producción)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Acuícola Ríos, Toro y Compañía Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5700</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>26/11/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7570403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Planta piloto compostaje de aserrín Villarrica</t>
+          <t>Modificación Línea de Transmisión 110 kV Loncoche-Villarrica, Segundo Circuito</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>comercial e industrial wm uno ltda</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>5700</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7214928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chesque Alto</t>
+          <t>Planta piloto compostaje de aserrín Villarrica</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
+          <t>comercial e industrial wm uno ltda</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6977495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Regularización Piscicultura Chesque Alto</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Soc. Comercial Agrícola y Forestal Nalcahue Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6931050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ENTEL PCS Telecomunicaciones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio TE 325 Villarrica Alto</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>ENTEL PCS Telecomunicaciones S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6619250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,40 +2728,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AGUAS ARAUCANÍA S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4427</v>
+        <v>100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
+          <t>Instalación Sistema de Alcantarillado Público de Aguas Servidas Localidad de Lican Ray</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>AGUAS ARAUCANÍA S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>07/10/2011</t>
+          <t>14/10/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6157334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,30 +2824,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>ESTUDIO DE IMPACTO AMBIENTAL DEL PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLADO PÚBLICO DE AGUAS SERVIDAS LOCALIDAD DE LICANRAY EIA - PROYECTO INSTALACIÓN SISTEMA DE ALCANTARILLA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>319</v>
+        <v>4427</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>07/10/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6098008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>512</v>
+        <v>319</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>26/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Optimización y Cierre del Relleno Sanitario Villarrica</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>26/09/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
+          <t>Modificación de sistema de tratamiento de mortalidad mediante sistema de ensilaje, Piscicultura Huincacara</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21/02/2011</t>
+          <t>04/04/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5500892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
+          <t>IMPLEMENTACION SISTEMA DE ENSILAJE, PISCICULTURA CHEHUILCO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>56000</v>
+        <v>23</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>03/02/2011</t>
+          <t>21/02/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
+          <t>Proyecto Inmobiliario Domínicos de Villarrica</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>40</v>
+        <v>56000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>02/09/2010</t>
+          <t>03/02/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Villarrica</t>
+          <t>Sistema Ensilaje Piscicultura Loncotraro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>30/08/2010</t>
+          <t>02/09/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4870264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Plan Regulador Comunal de Villarrica</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Quilentue Limitada</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/08/2010</t>
+          <t>30/08/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845319&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Piscicultura Newenco</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Sociedad Agrícola Quilentue Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>07/07/2010</t>
+          <t>13/08/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4843359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
+          <t>Piscicultura Newenco</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/05/2010</t>
+          <t>07/07/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4727917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Modificación y Ampliación Piscicultura Quilentue</t>
+          <t>Extracción de Aridos desde Pozo Lastre Arimix Ltda (segunda presentación).</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Alberto Adolfo Peters Hitschfeld</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>18/05/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4588994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Modificación y Ampliación Piscicultura Quilentue</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Alberto Adolfo Peters Hitschfeld</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>María Josefina Iribarren Marton</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4000</v>
+        <v>22</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>MODIFICACIÓN, AMPLIACIÓN Y TRANSFERENCIA DE PISCICULTURA QUILENTUE (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>María Josefina Iribarren Marton</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3522207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Regularización Piscicultura Chehuilco (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>08/08/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3073889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Regularización Piscicultura Huincacara (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2500</v>
+        <v>234</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
+          <t>Regularización Piscicultura Huincacara (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sociedad Comercial Agrícola y Forestal Huincacara Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>7017</v>
+        <v>2500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2400639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO RUTA S 69, SECTOR PEDREGOSO - VILLARRICA (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>7017</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2373806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5700</v>
+        <v>10</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>26/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea de Transmisión 110 kV Loncoche - Villarrica, Segundo Circuito (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>5700</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>26/07/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2269399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4686</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>22/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Modificación PRC Villarrica (e-seia)</t>
+          <t>Construcción Parque Urbano Ribera Lago Villarrica, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4427,11 +4427,11 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>22/05/2007</t>
+          <t>22/06/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2183862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Modificación PRC Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>22/05/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4523,21 +4523,21 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1870</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>30/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
+          <t>Modificación a sistema de recirculación de Piscicultura Molco (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4060</v>
+        <v>1870</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>30/06/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>Construcción Puente Rodrigo de Bastidas, Comuna de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3390</v>
+        <v>4060</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18/05/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1438678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3870</v>
+        <v>3390</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16/05/2006</t>
+          <t>18/05/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1454710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
+          <t>CONSTRUCCIÓN AVENIDA COSTANERA DE VILLARRICA, COMUNA DE VILLARRICA - IX REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3399</v>
+        <v>3870</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>11/05/2006</t>
+          <t>16/05/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1395507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,40 +4888,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Proyecto Sistema de Tratamiento de Aguas Servidas Localidad Villarrica</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>500</v>
+        <v>3399</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>11/05/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1449150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Industrial (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Constructora Villarrica Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>18/10/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento Industrial (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Constructora Villarrica Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>18/10/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1063380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Parque Villarrica (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Los Canales</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>6000</v>
+        <v>170</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
+          <t>Proyecto Parque Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Antonio Donato Roa Astete</t>
+          <t>Sociedad Agrícola Los Canales</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>356</v>
+        <v>6000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>17/03/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=913050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Drenaje Superficial Collico Bajo - Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Antonio Donato Roa Astete</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>17/03/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=624649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Piscicultura Loncotraro (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Acuícola e Inversiones Nalcahue Ltda</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>15/10/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
+          <t>Piscicultura Loncotraro (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
+          <t>Acuícola e Inversiones Nalcahue Ltda</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>05/08/2004</t>
+          <t>15/10/2004</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=481007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
+          <t>ACTUALIZACION PLAN REGULADOR INTERCOMUNAL VILLARRICA PUCON (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>MINISTERIO DE VIVIENDA U URBANISMO IX REGION</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3360</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>24/06/2004</t>
+          <t>05/08/2004</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=416166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Terminal de Buses Urbanos Línea 3</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Villarrica (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Empresa de Taxibuses RJR Ltda.</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>130</v>
+        <v>3360</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>24/06/2004</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Colegio Alemán de Villarrica</t>
+          <t>Terminal de Buses Urbanos Línea 3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
+          <t>Empresa de Taxibuses RJR Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>800</v>
+        <v>130</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/10/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
+          <t>Colegio Alemán de Villarrica</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Hotelera Aguas Verdes S.A.</t>
+          <t>Sociedad Germana de Educación, Cultura y Beneficencia Lago Villarrica</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>09/09/2002</t>
+          <t>07/10/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
+          <t>Planta de Tratamiento de Aguas Servidas Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Piscicultura Pino Guacho Estero Vásquez</t>
+          <t>Manejo y Pretratamiento de Residuos Sólidos Domésticos Villarrica Park Lake Hotel</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Bernhad Jungeburth Orth</t>
+          <t>Hotelera Aguas Verdes S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>22/05/2002</t>
+          <t>09/09/2002</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Piscicultura Sector Chesque Alto</t>
+          <t>Piscicultura Pino Guacho Estero Vásquez</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sofonías Carlos Arias Ferreira</t>
+          <t>Bernhad Jungeburth Orth</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>06/05/2002</t>
+          <t>22/05/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Muelle Paseo del Lago</t>
+          <t>Piscicultura Sector Chesque Alto</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Manuel Augusto Gaete Winkelman</t>
+          <t>Sofonías Carlos Arias Ferreira</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>13/12/2001</t>
+          <t>06/05/2002</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
+          <t>Muelle Paseo del Lago</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Manuel Augusto Gaete Winkelman</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5871,17 +5871,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/10/2001</t>
+          <t>13/12/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Piscicultura Los Chilcos</t>
+          <t>Diseño Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas de Ñancul</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5919,17 +5919,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>23/10/2001</t>
+          <t>30/10/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modificación de Plan Regulador Comunal Villarrica</t>
+          <t>Piscicultura Los Chilcos</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Erwin Rafael Gudenschwager Jiménez</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10/10/2001</t>
+          <t>23/10/2001</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
+          <t>Modificación de Plan Regulador Comunal Villarrica</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Erwin Rafael Gudenschwager Jiménez</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>17/04/2001</t>
+          <t>10/10/2001</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Restaurant a Discoteca</t>
+          <t>Modificación Plan Regulador de la Localidad de Licán Ray Zona Z-5 y Z-3E</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Raul José San,Martín San,Martín</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>14/03/2001</t>
+          <t>17/04/2001</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Quilentue IX Región</t>
+          <t>Modificación Proyecto Restaurant a Discoteca</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GENTEC S.A.</t>
+          <t>Raul José San,Martín San,Martín</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>14/03/2001</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
+          <t>Instalación Piscicultura Quilentue IX Región</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sociedad Pétreos S.A.</t>
+          <t>GENTEC S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>03/01/2001</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Instalación Piscicultura Molco</t>
+          <t>Planta de Hormigones Premezclados Planta Villarrica</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>Sociedad Pétreos S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>16000</v>
+        <v>230</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>11/12/2000</t>
+          <t>03/01/2001</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Villarrica</t>
+          <t>Instalación Piscicultura Molco</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>11/12/2000</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
+          <t>Modificación Plan Regulador de Villarrica</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>14/09/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
+          <t>Planta de Tratamiento de Aguas Servidas Condominio Inmobiliario Turístico Collahuasi del Lago</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Guillermo Patricio Leddy Fuentes</t>
+          <t>Inmobiliaria Turística Collahuasi del Lago S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>750</v>
+        <v>60</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>17/02/2000</t>
+          <t>14/09/2000</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
+          <t>Construcción 220 Viviendas Progresivas de la Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6395,21 +6395,21 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>24/01/2000</t>
+          <t>17/02/2000</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
+          <t>Construcción 200 Viviendas Progresivas Localidad de Ñancul</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Guillermo Patricio Leddy Fuentes</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>06/12/1999</t>
+          <t>24/01/2000</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131922132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
+          <t>Instalación del Servicio de Agua Potable Rural de Molco-Loncotraro</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/08/1999</t>
+          <t>06/12/1999</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Urbanización y Construcción Hijuela Pucará</t>
+          <t>Modificación Plan Regulador Intercomunal Villarrica - Pucón</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Jaime Fernando Cordero Cuevas</t>
+          <t>Secretaría Regional de Vivienda y Urbanismo IX Región SERVIU</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6543,17 +6543,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/06/1999</t>
+          <t>30/08/1999</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
+          <t>Urbanización y Construcción Hijuela Pucará</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Villarrica</t>
+          <t>Jaime Fernando Cordero Cuevas</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>15/02/1999</t>
+          <t>30/06/1999</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
+          <t>Modificación al Plan Regulador Comunal de Villarrica en Zona Coyahue</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Eduardo Segundo Atuan Burgos</t>
+          <t>I. Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>15/02/1999</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF Villarrica</t>
+          <t>Solicitud Cambio de uso de suelo para la construcción de parques en Villarrica</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Corporación Obra Kolping Chile</t>
+          <t>Eduardo Segundo Atuan Burgos</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>18/06/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,12 +6712,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Relleno Sanitario Comuna de Villarrica</t>
+          <t>Estación de Servicios YPF Villarrica</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Constructora Villarica Ltda.</t>
+          <t>Corporación Obra Kolping Chile</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06/04/1998</t>
+          <t>18/06/1998</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,12 +6760,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Hostería y Centro de Capacitación Afunalhue</t>
+          <t>Relleno Sanitario Comuna de Villarrica</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Fundación San Cristóbal</t>
+          <t>Constructora Villarica Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>20/01/1998</t>
+          <t>06/04/1998</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
+          <t>Hostería y Centro de Capacitación Afunalhue</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
+          <t>Fundación San Cristóbal</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>21/10/1997</t>
+          <t>20/01/1998</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=773&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
+          <t>Solicitud de cambio de uso de suelos para construcción viviendas progresivas loteo Melilahuen de Lican Ray</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,11 +6871,11 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Comité Habitacional Calafquén de Lican Ray</t>
+          <t>Comité de Vivienda Melilahuén de Licán Ray</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+          <t>Loteo y Urbanización Vivienda Progresiva Calafquén</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+          <t>Comité Habitacional Calafquén de Lican Ray</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,43 +6952,91 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>Loteo y Urbanización Vivienda Progresiva Melilahuen</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Comité de Vivienda Melilahuen de Lican Ray</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>300</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>21/10/1997</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=766&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>Hostería y centro de capacitación Afunalhue</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Novena</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t>Fundación San Cristóbal</t>
         </is>
       </c>
-      <c r="F138" t="n">
+      <c r="F139" t="n">
         <v>0</v>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>16/10/1997</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>No Admitido a Tramitación</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131747876&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>Villarrica</t>
         </is>

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>soc.exploradora de aridos Arimix ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL EXTRACCION DE ARIDOS DESDE POZO LASTRE ARIMIX LTDA.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,16 +3554,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>soc.exploradora de aridos Arimix ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4520570&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">

--- a/data/Villarrica.xlsx
+++ b/data/Villarrica.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/11/2023</t>
+          <t>30/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
